--- a/modelos/OBAFAR4425017/OBAFAR4425017_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4425017/OBAFAR4425017_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44856</v>
       </c>
       <c r="B2" t="n">
-        <v>9.000017955365788</v>
+        <v>9.038593686422555</v>
       </c>
       <c r="C2" t="n">
-        <v>9.000017948089274</v>
+        <v>9.03375073896561</v>
       </c>
       <c r="D2" t="n">
-        <v>9.000017963569517</v>
+        <v>9.044181688038575</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -499,10 +499,10 @@
         <v>1.485277141024515</v>
       </c>
       <c r="C3" t="n">
-        <v>1.207678686140624</v>
+        <v>1.203625920564409</v>
       </c>
       <c r="D3" t="n">
-        <v>1.761377275584916</v>
+        <v>1.760370830311439</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -516,13 +516,13 @@
         <v>44866</v>
       </c>
       <c r="B4" t="n">
-        <v>1.866020235420442</v>
+        <v>1.866020235420698</v>
       </c>
       <c r="C4" t="n">
-        <v>1.567546548237228</v>
+        <v>1.560995913381741</v>
       </c>
       <c r="D4" t="n">
-        <v>2.192762579205783</v>
+        <v>2.171325936235391</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -536,13 +536,13 @@
         <v>44877</v>
       </c>
       <c r="B5" t="n">
-        <v>2.473736460766895</v>
+        <v>2.473736460766548</v>
       </c>
       <c r="C5" t="n">
-        <v>2.15909491367313</v>
+        <v>2.158039803787192</v>
       </c>
       <c r="D5" t="n">
-        <v>2.779371182692477</v>
+        <v>2.779192967709397</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>44879</v>
       </c>
       <c r="B6" t="n">
-        <v>3.797068888220282</v>
+        <v>3.797068888219924</v>
       </c>
       <c r="C6" t="n">
-        <v>3.462102024368489</v>
+        <v>3.488626128189442</v>
       </c>
       <c r="D6" t="n">
-        <v>4.124146300817343</v>
+        <v>4.109123300770674</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -576,13 +576,13 @@
         <v>44895</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9013906701944969</v>
+        <v>-0.9013906701945209</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.464879182295738</v>
+        <v>-1.494202477322258</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.273144500734532</v>
+        <v>-0.2523085673500481</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -596,13 +596,13 @@
         <v>44905</v>
       </c>
       <c r="B8" t="n">
-        <v>1.623949038662844</v>
+        <v>1.623949038662879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.046140988748182</v>
+        <v>1.041063059249541</v>
       </c>
       <c r="D8" t="n">
-        <v>2.215087991757624</v>
+        <v>2.229939157760149</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -616,13 +616,13 @@
         <v>44921</v>
       </c>
       <c r="B9" t="n">
-        <v>3.339073351065559</v>
+        <v>3.339073351061691</v>
       </c>
       <c r="C9" t="n">
-        <v>2.506400396677786</v>
+        <v>2.53490388976906</v>
       </c>
       <c r="D9" t="n">
-        <v>4.19016905113333</v>
+        <v>4.194824897247167</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -697,22 +697,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7754248640139038</v>
+        <v>0.7754248640136132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8805821165648913</v>
+        <v>0.8805821165647263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8243513117775216</v>
+        <v>0.8243513117773935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3176773421737976</v>
+        <v>0.3176773421737549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3176773421737976</v>
+        <v>0.3176773421737549</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3807254102357641</v>
+        <v>0.3807254102356992</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -723,19 +723,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3.615286480702678</v>
+        <v>3.615286480702769</v>
       </c>
       <c r="C3" t="n">
-        <v>1.901390670194497</v>
+        <v>1.901390670194521</v>
       </c>
       <c r="D3" t="n">
-        <v>1.901390670194497</v>
+        <v>1.901390670194521</v>
       </c>
       <c r="E3" t="n">
-        <v>1.901390670194497</v>
+        <v>1.901390670194521</v>
       </c>
       <c r="F3" t="n">
-        <v>1.901390670194497</v>
+        <v>1.901390670194521</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -749,22 +749,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>25.58607526561858</v>
+        <v>25.85685011917008</v>
       </c>
       <c r="C4" t="n">
-        <v>5.058268010457589</v>
+        <v>5.084963138427857</v>
       </c>
       <c r="D4" t="n">
-        <v>4.236877208066342</v>
+        <v>4.256165073594552</v>
       </c>
       <c r="E4" t="n">
-        <v>2.486872719224895</v>
+        <v>2.496516651988913</v>
       </c>
       <c r="F4" t="n">
-        <v>2.486872719224895</v>
+        <v>2.496516651988913</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060615314434048</v>
+        <v>1.061886084612456</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -775,22 +775,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>4.782112967181856</v>
+        <v>4.78211296717534</v>
       </c>
       <c r="C5" t="n">
-        <v>2.186804281864716</v>
+        <v>2.186804281863226</v>
       </c>
       <c r="D5" t="n">
-        <v>2.170731066874333</v>
+        <v>2.170731066872912</v>
       </c>
       <c r="E5" t="n">
-        <v>1.277206845169996</v>
+        <v>1.277206845168644</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8985344441101408</v>
+        <v>0.8985344441099619</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8477041422453768</v>
+        <v>0.8477041422450686</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>

--- a/modelos/OBAFAR4425017/OBAFAR4425017_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4425017/OBAFAR4425017_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44856</v>
       </c>
       <c r="B2" t="n">
-        <v>9.038593686422555</v>
+        <v>7.730322265863206</v>
       </c>
       <c r="C2" t="n">
-        <v>9.03375073896561</v>
+        <v>7.608845746528685</v>
       </c>
       <c r="D2" t="n">
-        <v>9.044181688038575</v>
+        <v>7.87072535159744</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -499,10 +499,10 @@
         <v>1.485277141024515</v>
       </c>
       <c r="C3" t="n">
-        <v>1.203625920564409</v>
+        <v>1.199291588986614</v>
       </c>
       <c r="D3" t="n">
-        <v>1.760370830311439</v>
+        <v>1.755590229528346</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -516,13 +516,13 @@
         <v>44866</v>
       </c>
       <c r="B4" t="n">
-        <v>1.866020235420698</v>
+        <v>1.866020235420619</v>
       </c>
       <c r="C4" t="n">
-        <v>1.560995913381741</v>
+        <v>1.564247542823243</v>
       </c>
       <c r="D4" t="n">
-        <v>2.171325936235391</v>
+        <v>2.170324138021031</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -536,13 +536,13 @@
         <v>44877</v>
       </c>
       <c r="B5" t="n">
-        <v>2.473736460766548</v>
+        <v>2.473736460766437</v>
       </c>
       <c r="C5" t="n">
-        <v>2.158039803787192</v>
+        <v>2.156367688899771</v>
       </c>
       <c r="D5" t="n">
-        <v>2.779192967709397</v>
+        <v>2.792799937134056</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>44879</v>
       </c>
       <c r="B6" t="n">
-        <v>3.797068888219924</v>
+        <v>3.797068888219809</v>
       </c>
       <c r="C6" t="n">
-        <v>3.488626128189442</v>
+        <v>3.500003782578792</v>
       </c>
       <c r="D6" t="n">
-        <v>4.109123300770674</v>
+        <v>4.124775830479705</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -576,13 +576,13 @@
         <v>44895</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9013906701945209</v>
+        <v>-0.9013906701945005</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.494202477322258</v>
+        <v>-1.482207713910194</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2523085673500481</v>
+        <v>-0.2745921016806226</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -596,13 +596,13 @@
         <v>44905</v>
       </c>
       <c r="B8" t="n">
-        <v>1.623949038662879</v>
+        <v>1.623949038662927</v>
       </c>
       <c r="C8" t="n">
-        <v>1.041063059249541</v>
+        <v>1.030377314262161</v>
       </c>
       <c r="D8" t="n">
-        <v>2.229939157760149</v>
+        <v>2.191425022794108</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -616,13 +616,13 @@
         <v>44921</v>
       </c>
       <c r="B9" t="n">
-        <v>3.339073351061691</v>
+        <v>3.339073351068576</v>
       </c>
       <c r="C9" t="n">
-        <v>2.53490388976906</v>
+        <v>2.519657357413874</v>
       </c>
       <c r="D9" t="n">
-        <v>4.194824897247167</v>
+        <v>4.232378783666229</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -697,22 +697,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7754248640136132</v>
+        <v>0.7754248640137024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8805821165647263</v>
+        <v>0.8805821165647769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8243513117773935</v>
+        <v>0.8243513117774328</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3176773421737549</v>
+        <v>0.317677342173768</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3176773421737549</v>
+        <v>0.317677342173768</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3807254102356992</v>
+        <v>0.3807254102357191</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -723,19 +723,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3.615286480702769</v>
+        <v>3.615286480702692</v>
       </c>
       <c r="C3" t="n">
-        <v>1.901390670194521</v>
+        <v>1.9013906701945</v>
       </c>
       <c r="D3" t="n">
-        <v>1.901390670194521</v>
+        <v>1.9013906701945</v>
       </c>
       <c r="E3" t="n">
-        <v>1.901390670194521</v>
+        <v>1.9013906701945</v>
       </c>
       <c r="F3" t="n">
-        <v>1.901390670194521</v>
+        <v>1.9013906701945</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -749,22 +749,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>25.85685011917008</v>
+        <v>17.50424621322001</v>
       </c>
       <c r="C4" t="n">
-        <v>5.084963138427857</v>
+        <v>4.183807621440069</v>
       </c>
       <c r="D4" t="n">
-        <v>4.256165073594552</v>
+        <v>3.602029363314822</v>
       </c>
       <c r="E4" t="n">
-        <v>2.496516651988913</v>
+        <v>2.16944879684902</v>
       </c>
       <c r="F4" t="n">
-        <v>2.496516651988913</v>
+        <v>2.16944879684902</v>
       </c>
       <c r="G4" t="n">
-        <v>1.061886084612456</v>
+        <v>1.01316500835022</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -775,22 +775,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>4.78211296717534</v>
+        <v>4.782112967185864</v>
       </c>
       <c r="C5" t="n">
-        <v>2.186804281863226</v>
+        <v>2.186804281865632</v>
       </c>
       <c r="D5" t="n">
-        <v>2.170731066872912</v>
+        <v>2.170731066875152</v>
       </c>
       <c r="E5" t="n">
-        <v>1.277206845168644</v>
+        <v>1.277206845170916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8985344441099619</v>
+        <v>0.8985344441099044</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8477041422450686</v>
+        <v>0.8477041422455391</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>

--- a/modelos/OBAFAR4425017/OBAFAR4425017_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4425017/OBAFAR4425017_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>7.730322265863206</v>
       </c>
       <c r="C2" t="n">
-        <v>7.608845746528685</v>
+        <v>7.608631855629275</v>
       </c>
       <c r="D2" t="n">
-        <v>7.87072535159744</v>
+        <v>7.859679284270633</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -499,10 +499,10 @@
         <v>1.485277141024515</v>
       </c>
       <c r="C3" t="n">
-        <v>1.199291588986614</v>
+        <v>1.194892540566407</v>
       </c>
       <c r="D3" t="n">
-        <v>1.755590229528346</v>
+        <v>1.769485576352996</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -519,10 +519,10 @@
         <v>1.866020235420619</v>
       </c>
       <c r="C4" t="n">
-        <v>1.564247542823243</v>
+        <v>1.582655990899706</v>
       </c>
       <c r="D4" t="n">
-        <v>2.170324138021031</v>
+        <v>2.164034241835011</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -539,10 +539,10 @@
         <v>2.473736460766437</v>
       </c>
       <c r="C5" t="n">
-        <v>2.156367688899771</v>
+        <v>2.155816608541022</v>
       </c>
       <c r="D5" t="n">
-        <v>2.792799937134056</v>
+        <v>2.77713997630943</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>3.797068888219809</v>
       </c>
       <c r="C6" t="n">
-        <v>3.500003782578792</v>
+        <v>3.489629098719618</v>
       </c>
       <c r="D6" t="n">
-        <v>4.124775830479705</v>
+        <v>4.111509834904323</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -579,10 +579,10 @@
         <v>-0.9013906701945005</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.482207713910194</v>
+        <v>-1.562964149291785</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2745921016806226</v>
+        <v>-0.2940467437436641</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -599,10 +599,10 @@
         <v>1.623949038662927</v>
       </c>
       <c r="C8" t="n">
-        <v>1.030377314262161</v>
+        <v>1.074786618927057</v>
       </c>
       <c r="D8" t="n">
-        <v>2.191425022794108</v>
+        <v>2.236336556367915</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -619,10 +619,10 @@
         <v>3.339073351068576</v>
       </c>
       <c r="C9" t="n">
-        <v>2.519657357413874</v>
+        <v>2.555647073290002</v>
       </c>
       <c r="D9" t="n">
-        <v>4.232378783666229</v>
+        <v>4.188857320301679</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
